--- a/students_marks.xlsx
+++ b/students_marks.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jigya\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66C33E27-9320-4928-9603-982B431DB2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
   <si>
     <t>Roll No</t>
   </si>
@@ -52,6 +46,12 @@
     <t>Kiran</t>
   </si>
   <si>
+    <t>Suman</t>
+  </si>
+  <si>
+    <t>Vikram</t>
+  </si>
+  <si>
     <t>Raj</t>
   </si>
   <si>
@@ -67,6 +67,9 @@
     <t>Alok</t>
   </si>
   <si>
+    <t>Shrishti</t>
+  </si>
+  <si>
     <t>Manish</t>
   </si>
   <si>
@@ -82,18 +85,36 @@
     <t>Rohan</t>
   </si>
   <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>Manisha</t>
+  </si>
+  <si>
+    <t>Samriti</t>
+  </si>
+  <si>
     <t>Pooja</t>
   </si>
   <si>
     <t>Sonia</t>
   </si>
   <si>
+    <t>Sidharth</t>
+  </si>
+  <si>
     <t>Varun</t>
   </si>
   <si>
+    <t>Priya</t>
+  </si>
+  <si>
     <t>Amit</t>
   </si>
   <si>
+    <t>Vishesh</t>
+  </si>
+  <si>
     <t>Arjun</t>
   </si>
   <si>
@@ -106,41 +127,263 @@
     <t>Nisha</t>
   </si>
   <si>
-    <t>Vikram</t>
-  </si>
-  <si>
-    <t>Suman</t>
-  </si>
-  <si>
-    <t>Shrishti</t>
-  </si>
-  <si>
-    <t>Ramesh</t>
-  </si>
-  <si>
-    <t>Manisha</t>
-  </si>
-  <si>
-    <t>Samriti</t>
-  </si>
-  <si>
-    <t>Sidharth</t>
-  </si>
-  <si>
-    <t>Priya</t>
-  </si>
-  <si>
-    <t>Vishesh</t>
-  </si>
-  <si>
     <t>Rohit</t>
+  </si>
+  <si>
+    <t>Connie</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Reginald</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Veronica</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>Cassandra</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Trevor</t>
+  </si>
+  <si>
+    <t>Beth</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Haley</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Jenna</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>Tiffany</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Kathryn</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Stacy</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Brittany</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
+    <t>Monique</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Debra</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Brittney</t>
+  </si>
+  <si>
+    <t>Carrie</t>
+  </si>
+  <si>
+    <t>Alfred</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Connor</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Lindsey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,21 +446,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -255,7 +490,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -289,7 +524,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -324,10 +558,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -500,24 +733,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -575,12 +798,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>76</v>
@@ -604,12 +827,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>87</v>
@@ -633,12 +856,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>76</v>
@@ -662,12 +885,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>95</v>
@@ -691,12 +914,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>71</v>
@@ -720,12 +943,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>91</v>
@@ -749,12 +972,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>89</v>
@@ -778,12 +1001,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>69</v>
@@ -807,12 +1030,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>71</v>
@@ -836,12 +1059,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>51</v>
@@ -865,12 +1088,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>94</v>
@@ -894,7 +1117,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -923,12 +1146,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>95</v>
@@ -952,12 +1175,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>80</v>
@@ -981,12 +1204,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>76</v>
@@ -1010,12 +1233,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>76</v>
@@ -1039,12 +1262,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>82</v>
@@ -1068,12 +1291,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>98</v>
@@ -1097,12 +1320,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>86</v>
@@ -1126,12 +1349,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>77</v>
@@ -1155,12 +1378,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>78</v>
@@ -1184,12 +1407,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>92</v>
@@ -1213,12 +1436,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>82</v>
@@ -1242,12 +1465,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <v>57</v>
@@ -1271,12 +1494,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C27">
         <v>57</v>
@@ -1300,12 +1523,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C28">
         <v>85</v>
@@ -1329,12 +1552,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>99</v>
@@ -1358,12 +1581,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>68</v>
@@ -1387,7 +1610,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1413,6 +1636,2906 @@
         <v>406</v>
       </c>
       <c r="I31">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>79</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>85</v>
+      </c>
+      <c r="F32">
+        <v>72</v>
+      </c>
+      <c r="G32">
+        <v>67</v>
+      </c>
+      <c r="H32">
+        <v>403</v>
+      </c>
+      <c r="I32">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>67</v>
+      </c>
+      <c r="D33">
+        <v>84</v>
+      </c>
+      <c r="E33">
+        <v>63</v>
+      </c>
+      <c r="F33">
+        <v>70</v>
+      </c>
+      <c r="G33">
+        <v>74</v>
+      </c>
+      <c r="H33">
+        <v>358</v>
+      </c>
+      <c r="I33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>91</v>
+      </c>
+      <c r="D34">
+        <v>59</v>
+      </c>
+      <c r="E34">
+        <v>67</v>
+      </c>
+      <c r="F34">
+        <v>51</v>
+      </c>
+      <c r="G34">
+        <v>94</v>
+      </c>
+      <c r="H34">
+        <v>362</v>
+      </c>
+      <c r="I34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>79</v>
+      </c>
+      <c r="D35">
+        <v>45</v>
+      </c>
+      <c r="E35">
+        <v>71</v>
+      </c>
+      <c r="F35">
+        <v>40</v>
+      </c>
+      <c r="G35">
+        <v>60</v>
+      </c>
+      <c r="H35">
+        <v>295</v>
+      </c>
+      <c r="I35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>57</v>
+      </c>
+      <c r="D36">
+        <v>80</v>
+      </c>
+      <c r="E36">
+        <v>19</v>
+      </c>
+      <c r="F36">
+        <v>71</v>
+      </c>
+      <c r="G36">
+        <v>94</v>
+      </c>
+      <c r="H36">
+        <v>321</v>
+      </c>
+      <c r="I36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>84</v>
+      </c>
+      <c r="D37">
+        <v>74</v>
+      </c>
+      <c r="E37">
+        <v>51</v>
+      </c>
+      <c r="F37">
+        <v>27</v>
+      </c>
+      <c r="G37">
+        <v>63</v>
+      </c>
+      <c r="H37">
+        <v>299</v>
+      </c>
+      <c r="I37">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38">
+        <v>67</v>
+      </c>
+      <c r="E38">
+        <v>82</v>
+      </c>
+      <c r="F38">
+        <v>74</v>
+      </c>
+      <c r="G38">
+        <v>84</v>
+      </c>
+      <c r="H38">
+        <v>345</v>
+      </c>
+      <c r="I38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>58</v>
+      </c>
+      <c r="D39">
+        <v>76</v>
+      </c>
+      <c r="E39">
+        <v>60</v>
+      </c>
+      <c r="F39">
+        <v>71</v>
+      </c>
+      <c r="G39">
+        <v>77</v>
+      </c>
+      <c r="H39">
+        <v>342</v>
+      </c>
+      <c r="I39">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>38</v>
+      </c>
+      <c r="D40">
+        <v>76</v>
+      </c>
+      <c r="E40">
+        <v>38</v>
+      </c>
+      <c r="F40">
+        <v>71</v>
+      </c>
+      <c r="G40">
+        <v>69</v>
+      </c>
+      <c r="H40">
+        <v>292</v>
+      </c>
+      <c r="I40">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>89</v>
+      </c>
+      <c r="D41">
+        <v>89</v>
+      </c>
+      <c r="E41">
+        <v>65</v>
+      </c>
+      <c r="F41">
+        <v>62</v>
+      </c>
+      <c r="G41">
+        <v>75</v>
+      </c>
+      <c r="H41">
+        <v>380</v>
+      </c>
+      <c r="I41">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>94</v>
+      </c>
+      <c r="D42">
+        <v>73</v>
+      </c>
+      <c r="E42">
+        <v>32</v>
+      </c>
+      <c r="F42">
+        <v>72</v>
+      </c>
+      <c r="G42">
+        <v>75</v>
+      </c>
+      <c r="H42">
+        <v>346</v>
+      </c>
+      <c r="I42">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>82</v>
+      </c>
+      <c r="D43">
+        <v>66</v>
+      </c>
+      <c r="E43">
+        <v>43</v>
+      </c>
+      <c r="F43">
+        <v>27</v>
+      </c>
+      <c r="G43">
+        <v>66</v>
+      </c>
+      <c r="H43">
+        <v>284</v>
+      </c>
+      <c r="I43">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>95</v>
+      </c>
+      <c r="D44">
+        <v>87</v>
+      </c>
+      <c r="E44">
+        <v>44</v>
+      </c>
+      <c r="F44">
+        <v>58</v>
+      </c>
+      <c r="G44">
+        <v>36</v>
+      </c>
+      <c r="H44">
+        <v>320</v>
+      </c>
+      <c r="I44">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <v>67</v>
+      </c>
+      <c r="D45">
+        <v>70</v>
+      </c>
+      <c r="E45">
+        <v>66</v>
+      </c>
+      <c r="F45">
+        <v>79</v>
+      </c>
+      <c r="G45">
+        <v>78</v>
+      </c>
+      <c r="H45">
+        <v>360</v>
+      </c>
+      <c r="I45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>60</v>
+      </c>
+      <c r="D46">
+        <v>41</v>
+      </c>
+      <c r="E46">
+        <v>46</v>
+      </c>
+      <c r="F46">
+        <v>86</v>
+      </c>
+      <c r="G46">
+        <v>95</v>
+      </c>
+      <c r="H46">
+        <v>328</v>
+      </c>
+      <c r="I46">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <v>80</v>
+      </c>
+      <c r="E47">
+        <v>69</v>
+      </c>
+      <c r="F47">
+        <v>60</v>
+      </c>
+      <c r="G47">
+        <v>65</v>
+      </c>
+      <c r="H47">
+        <v>319</v>
+      </c>
+      <c r="I47">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <v>76</v>
+      </c>
+      <c r="D48">
+        <v>55</v>
+      </c>
+      <c r="E48">
+        <v>87</v>
+      </c>
+      <c r="F48">
+        <v>63</v>
+      </c>
+      <c r="G48">
+        <v>63</v>
+      </c>
+      <c r="H48">
+        <v>344</v>
+      </c>
+      <c r="I48">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49">
+        <v>95</v>
+      </c>
+      <c r="D49">
+        <v>86</v>
+      </c>
+      <c r="E49">
+        <v>40</v>
+      </c>
+      <c r="F49">
+        <v>78</v>
+      </c>
+      <c r="G49">
+        <v>80</v>
+      </c>
+      <c r="H49">
+        <v>379</v>
+      </c>
+      <c r="I49">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>76</v>
+      </c>
+      <c r="D50">
+        <v>54</v>
+      </c>
+      <c r="E50">
+        <v>78</v>
+      </c>
+      <c r="F50">
+        <v>90</v>
+      </c>
+      <c r="G50">
+        <v>82</v>
+      </c>
+      <c r="H50">
+        <v>380</v>
+      </c>
+      <c r="I50">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51">
+        <v>83</v>
+      </c>
+      <c r="D51">
+        <v>48</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="G51">
+        <v>84</v>
+      </c>
+      <c r="H51">
+        <v>415</v>
+      </c>
+      <c r="I51">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52">
+        <v>78</v>
+      </c>
+      <c r="D52">
+        <v>64</v>
+      </c>
+      <c r="E52">
+        <v>47</v>
+      </c>
+      <c r="F52">
+        <v>35</v>
+      </c>
+      <c r="G52">
+        <v>83</v>
+      </c>
+      <c r="H52">
+        <v>307</v>
+      </c>
+      <c r="I52">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>58</v>
+      </c>
+      <c r="D53">
+        <v>66</v>
+      </c>
+      <c r="E53">
+        <v>79</v>
+      </c>
+      <c r="F53">
+        <v>48</v>
+      </c>
+      <c r="G53">
+        <v>49</v>
+      </c>
+      <c r="H53">
+        <v>300</v>
+      </c>
+      <c r="I53">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54">
+        <v>78</v>
+      </c>
+      <c r="D54">
+        <v>63</v>
+      </c>
+      <c r="E54">
+        <v>79</v>
+      </c>
+      <c r="F54">
+        <v>82</v>
+      </c>
+      <c r="G54">
+        <v>73</v>
+      </c>
+      <c r="H54">
+        <v>375</v>
+      </c>
+      <c r="I54">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>89</v>
+      </c>
+      <c r="E55">
+        <v>68</v>
+      </c>
+      <c r="F55">
+        <v>94</v>
+      </c>
+      <c r="G55">
+        <v>83</v>
+      </c>
+      <c r="H55">
+        <v>388</v>
+      </c>
+      <c r="I55">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>56</v>
+      </c>
+      <c r="D56">
+        <v>61</v>
+      </c>
+      <c r="E56">
+        <v>78</v>
+      </c>
+      <c r="F56">
+        <v>62</v>
+      </c>
+      <c r="G56">
+        <v>53</v>
+      </c>
+      <c r="H56">
+        <v>310</v>
+      </c>
+      <c r="I56">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57">
+        <v>62</v>
+      </c>
+      <c r="D57">
+        <v>99</v>
+      </c>
+      <c r="E57">
+        <v>73</v>
+      </c>
+      <c r="F57">
+        <v>56</v>
+      </c>
+      <c r="G57">
+        <v>73</v>
+      </c>
+      <c r="H57">
+        <v>363</v>
+      </c>
+      <c r="I57">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58">
+        <v>76</v>
+      </c>
+      <c r="D58">
+        <v>99</v>
+      </c>
+      <c r="E58">
+        <v>37</v>
+      </c>
+      <c r="F58">
+        <v>80</v>
+      </c>
+      <c r="G58">
+        <v>63</v>
+      </c>
+      <c r="H58">
+        <v>355</v>
+      </c>
+      <c r="I58">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59">
+        <v>64</v>
+      </c>
+      <c r="D59">
+        <v>86</v>
+      </c>
+      <c r="E59">
+        <v>73</v>
+      </c>
+      <c r="F59">
+        <v>59</v>
+      </c>
+      <c r="G59">
+        <v>57</v>
+      </c>
+      <c r="H59">
+        <v>339</v>
+      </c>
+      <c r="I59">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60">
+        <v>57</v>
+      </c>
+      <c r="D60">
+        <v>55</v>
+      </c>
+      <c r="E60">
+        <v>83</v>
+      </c>
+      <c r="F60">
+        <v>88</v>
+      </c>
+      <c r="G60">
+        <v>52</v>
+      </c>
+      <c r="H60">
+        <v>335</v>
+      </c>
+      <c r="I60">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61">
+        <v>56</v>
+      </c>
+      <c r="D61">
+        <v>60</v>
+      </c>
+      <c r="E61">
+        <v>70</v>
+      </c>
+      <c r="F61">
+        <v>65</v>
+      </c>
+      <c r="G61">
+        <v>95</v>
+      </c>
+      <c r="H61">
+        <v>346</v>
+      </c>
+      <c r="I61">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62">
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <v>70</v>
+      </c>
+      <c r="E62">
+        <v>78</v>
+      </c>
+      <c r="F62">
+        <v>60</v>
+      </c>
+      <c r="G62">
+        <v>69</v>
+      </c>
+      <c r="H62">
+        <v>337</v>
+      </c>
+      <c r="I62">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63">
+        <v>55</v>
+      </c>
+      <c r="D63">
+        <v>64</v>
+      </c>
+      <c r="E63">
+        <v>88</v>
+      </c>
+      <c r="F63">
+        <v>85</v>
+      </c>
+      <c r="G63">
+        <v>56</v>
+      </c>
+      <c r="H63">
+        <v>348</v>
+      </c>
+      <c r="I63">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64">
+        <v>39</v>
+      </c>
+      <c r="D64">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <v>63</v>
+      </c>
+      <c r="F64">
+        <v>53</v>
+      </c>
+      <c r="G64">
+        <v>45</v>
+      </c>
+      <c r="H64">
+        <v>262</v>
+      </c>
+      <c r="I64">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65">
+        <v>78</v>
+      </c>
+      <c r="D65">
+        <v>83</v>
+      </c>
+      <c r="E65">
+        <v>78</v>
+      </c>
+      <c r="F65">
+        <v>73</v>
+      </c>
+      <c r="G65">
+        <v>43</v>
+      </c>
+      <c r="H65">
+        <v>355</v>
+      </c>
+      <c r="I65">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66">
+        <v>67</v>
+      </c>
+      <c r="D66">
+        <v>76</v>
+      </c>
+      <c r="E66">
+        <v>71</v>
+      </c>
+      <c r="F66">
+        <v>84</v>
+      </c>
+      <c r="G66">
+        <v>75</v>
+      </c>
+      <c r="H66">
+        <v>373</v>
+      </c>
+      <c r="I66">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67">
+        <v>96</v>
+      </c>
+      <c r="D67">
+        <v>87</v>
+      </c>
+      <c r="E67">
+        <v>81</v>
+      </c>
+      <c r="F67">
+        <v>72</v>
+      </c>
+      <c r="G67">
+        <v>87</v>
+      </c>
+      <c r="H67">
+        <v>423</v>
+      </c>
+      <c r="I67">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68">
+        <v>71</v>
+      </c>
+      <c r="D68">
+        <v>66</v>
+      </c>
+      <c r="E68">
+        <v>49</v>
+      </c>
+      <c r="F68">
+        <v>74</v>
+      </c>
+      <c r="G68">
+        <v>67</v>
+      </c>
+      <c r="H68">
+        <v>327</v>
+      </c>
+      <c r="I68">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69">
+        <v>88</v>
+      </c>
+      <c r="D69">
+        <v>59</v>
+      </c>
+      <c r="E69">
+        <v>61</v>
+      </c>
+      <c r="F69">
+        <v>66</v>
+      </c>
+      <c r="G69">
+        <v>98</v>
+      </c>
+      <c r="H69">
+        <v>372</v>
+      </c>
+      <c r="I69">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70">
+        <v>62</v>
+      </c>
+      <c r="D70">
+        <v>80</v>
+      </c>
+      <c r="E70">
+        <v>34</v>
+      </c>
+      <c r="F70">
+        <v>54</v>
+      </c>
+      <c r="G70">
+        <v>72</v>
+      </c>
+      <c r="H70">
+        <v>302</v>
+      </c>
+      <c r="I70">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71">
+        <v>59</v>
+      </c>
+      <c r="D71">
+        <v>63</v>
+      </c>
+      <c r="E71">
+        <v>82</v>
+      </c>
+      <c r="F71">
+        <v>66</v>
+      </c>
+      <c r="G71">
+        <v>87</v>
+      </c>
+      <c r="H71">
+        <v>357</v>
+      </c>
+      <c r="I71">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72">
+        <v>62</v>
+      </c>
+      <c r="D72">
+        <v>79</v>
+      </c>
+      <c r="E72">
+        <v>50</v>
+      </c>
+      <c r="F72">
+        <v>54</v>
+      </c>
+      <c r="G72">
+        <v>66</v>
+      </c>
+      <c r="H72">
+        <v>311</v>
+      </c>
+      <c r="I72">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73">
+        <v>80</v>
+      </c>
+      <c r="D73">
+        <v>72</v>
+      </c>
+      <c r="E73">
+        <v>90</v>
+      </c>
+      <c r="F73">
+        <v>63</v>
+      </c>
+      <c r="G73">
+        <v>51</v>
+      </c>
+      <c r="H73">
+        <v>356</v>
+      </c>
+      <c r="I73">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74">
+        <v>74</v>
+      </c>
+      <c r="D74">
+        <v>63</v>
+      </c>
+      <c r="E74">
+        <v>52</v>
+      </c>
+      <c r="F74">
+        <v>47</v>
+      </c>
+      <c r="G74">
+        <v>81</v>
+      </c>
+      <c r="H74">
+        <v>317</v>
+      </c>
+      <c r="I74">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75">
+        <v>62</v>
+      </c>
+      <c r="D75">
+        <v>55</v>
+      </c>
+      <c r="E75">
+        <v>44</v>
+      </c>
+      <c r="F75">
+        <v>55</v>
+      </c>
+      <c r="G75">
+        <v>64</v>
+      </c>
+      <c r="H75">
+        <v>280</v>
+      </c>
+      <c r="I75">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76">
+        <v>61</v>
+      </c>
+      <c r="D76">
+        <v>76</v>
+      </c>
+      <c r="E76">
+        <v>26</v>
+      </c>
+      <c r="F76">
+        <v>75</v>
+      </c>
+      <c r="G76">
+        <v>71</v>
+      </c>
+      <c r="H76">
+        <v>309</v>
+      </c>
+      <c r="I76">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77">
+        <v>75</v>
+      </c>
+      <c r="D77">
+        <v>58</v>
+      </c>
+      <c r="E77">
+        <v>72</v>
+      </c>
+      <c r="F77">
+        <v>77</v>
+      </c>
+      <c r="G77">
+        <v>67</v>
+      </c>
+      <c r="H77">
+        <v>349</v>
+      </c>
+      <c r="I77">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78">
+        <v>47</v>
+      </c>
+      <c r="D78">
+        <v>55</v>
+      </c>
+      <c r="E78">
+        <v>73</v>
+      </c>
+      <c r="F78">
+        <v>58</v>
+      </c>
+      <c r="G78">
+        <v>81</v>
+      </c>
+      <c r="H78">
+        <v>314</v>
+      </c>
+      <c r="I78">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79">
+        <v>67</v>
+      </c>
+      <c r="D79">
+        <v>86</v>
+      </c>
+      <c r="E79">
+        <v>100</v>
+      </c>
+      <c r="F79">
+        <v>78</v>
+      </c>
+      <c r="G79">
+        <v>68</v>
+      </c>
+      <c r="H79">
+        <v>399</v>
+      </c>
+      <c r="I79">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80">
+        <v>59</v>
+      </c>
+      <c r="D80">
+        <v>84</v>
+      </c>
+      <c r="E80">
+        <v>62</v>
+      </c>
+      <c r="F80">
+        <v>68</v>
+      </c>
+      <c r="G80">
+        <v>54</v>
+      </c>
+      <c r="H80">
+        <v>327</v>
+      </c>
+      <c r="I80">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81">
+        <v>64</v>
+      </c>
+      <c r="D81">
+        <v>80</v>
+      </c>
+      <c r="E81">
+        <v>74</v>
+      </c>
+      <c r="F81">
+        <v>54</v>
+      </c>
+      <c r="G81">
+        <v>91</v>
+      </c>
+      <c r="H81">
+        <v>363</v>
+      </c>
+      <c r="I81">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82">
+        <v>82</v>
+      </c>
+      <c r="D82">
+        <v>100</v>
+      </c>
+      <c r="E82">
+        <v>81</v>
+      </c>
+      <c r="F82">
+        <v>85</v>
+      </c>
+      <c r="G82">
+        <v>69</v>
+      </c>
+      <c r="H82">
+        <v>417</v>
+      </c>
+      <c r="I82">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83">
+        <v>70</v>
+      </c>
+      <c r="D83">
+        <v>80</v>
+      </c>
+      <c r="E83">
+        <v>62</v>
+      </c>
+      <c r="F83">
+        <v>70</v>
+      </c>
+      <c r="G83">
+        <v>37</v>
+      </c>
+      <c r="H83">
+        <v>319</v>
+      </c>
+      <c r="I83">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84">
+        <v>84</v>
+      </c>
+      <c r="D84">
+        <v>53</v>
+      </c>
+      <c r="E84">
+        <v>57</v>
+      </c>
+      <c r="F84">
+        <v>73</v>
+      </c>
+      <c r="G84">
+        <v>86</v>
+      </c>
+      <c r="H84">
+        <v>353</v>
+      </c>
+      <c r="I84">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85">
+        <v>66</v>
+      </c>
+      <c r="D85">
+        <v>100</v>
+      </c>
+      <c r="E85">
+        <v>79</v>
+      </c>
+      <c r="F85">
+        <v>66</v>
+      </c>
+      <c r="G85">
+        <v>38</v>
+      </c>
+      <c r="H85">
+        <v>349</v>
+      </c>
+      <c r="I85">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86">
+        <v>74</v>
+      </c>
+      <c r="D86">
+        <v>82</v>
+      </c>
+      <c r="E86">
+        <v>63</v>
+      </c>
+      <c r="F86">
+        <v>82</v>
+      </c>
+      <c r="G86">
+        <v>57</v>
+      </c>
+      <c r="H86">
+        <v>358</v>
+      </c>
+      <c r="I86">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87">
+        <v>46</v>
+      </c>
+      <c r="D87">
+        <v>88</v>
+      </c>
+      <c r="E87">
+        <v>100</v>
+      </c>
+      <c r="F87">
+        <v>56</v>
+      </c>
+      <c r="G87">
+        <v>68</v>
+      </c>
+      <c r="H87">
+        <v>358</v>
+      </c>
+      <c r="I87">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88">
+        <v>84</v>
+      </c>
+      <c r="D88">
+        <v>52</v>
+      </c>
+      <c r="E88">
+        <v>52</v>
+      </c>
+      <c r="F88">
+        <v>96</v>
+      </c>
+      <c r="G88">
+        <v>57</v>
+      </c>
+      <c r="H88">
+        <v>341</v>
+      </c>
+      <c r="I88">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89">
+        <v>83</v>
+      </c>
+      <c r="D89">
+        <v>72</v>
+      </c>
+      <c r="E89">
+        <v>58</v>
+      </c>
+      <c r="F89">
+        <v>79</v>
+      </c>
+      <c r="G89">
+        <v>67</v>
+      </c>
+      <c r="H89">
+        <v>359</v>
+      </c>
+      <c r="I89">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>52</v>
+      </c>
+      <c r="D90">
+        <v>72</v>
+      </c>
+      <c r="E90">
+        <v>100</v>
+      </c>
+      <c r="F90">
+        <v>66</v>
+      </c>
+      <c r="G90">
+        <v>63</v>
+      </c>
+      <c r="H90">
+        <v>353</v>
+      </c>
+      <c r="I90">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>37</v>
+      </c>
+      <c r="D91">
+        <v>31</v>
+      </c>
+      <c r="E91">
+        <v>27</v>
+      </c>
+      <c r="F91">
+        <v>38</v>
+      </c>
+      <c r="G91">
+        <v>59</v>
+      </c>
+      <c r="H91">
+        <v>192</v>
+      </c>
+      <c r="I91">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92">
+        <v>49</v>
+      </c>
+      <c r="D92">
+        <v>84</v>
+      </c>
+      <c r="E92">
+        <v>87</v>
+      </c>
+      <c r="F92">
+        <v>66</v>
+      </c>
+      <c r="G92">
+        <v>77</v>
+      </c>
+      <c r="H92">
+        <v>363</v>
+      </c>
+      <c r="I92">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93">
+        <v>33</v>
+      </c>
+      <c r="D93">
+        <v>72</v>
+      </c>
+      <c r="E93">
+        <v>62</v>
+      </c>
+      <c r="F93">
+        <v>41</v>
+      </c>
+      <c r="G93">
+        <v>61</v>
+      </c>
+      <c r="H93">
+        <v>269</v>
+      </c>
+      <c r="I93">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94">
+        <v>75</v>
+      </c>
+      <c r="D94">
+        <v>60</v>
+      </c>
+      <c r="E94">
+        <v>52</v>
+      </c>
+      <c r="F94">
+        <v>62</v>
+      </c>
+      <c r="G94">
+        <v>86</v>
+      </c>
+      <c r="H94">
+        <v>335</v>
+      </c>
+      <c r="I94">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95">
+        <v>77</v>
+      </c>
+      <c r="D95">
+        <v>75</v>
+      </c>
+      <c r="E95">
+        <v>81</v>
+      </c>
+      <c r="F95">
+        <v>49</v>
+      </c>
+      <c r="G95">
+        <v>71</v>
+      </c>
+      <c r="H95">
+        <v>353</v>
+      </c>
+      <c r="I95">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96">
+        <v>35</v>
+      </c>
+      <c r="D96">
+        <v>78</v>
+      </c>
+      <c r="E96">
+        <v>91</v>
+      </c>
+      <c r="F96">
+        <v>73</v>
+      </c>
+      <c r="G96">
+        <v>70</v>
+      </c>
+      <c r="H96">
+        <v>347</v>
+      </c>
+      <c r="I96">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97">
+        <v>100</v>
+      </c>
+      <c r="D97">
+        <v>79</v>
+      </c>
+      <c r="E97">
+        <v>65</v>
+      </c>
+      <c r="F97">
+        <v>30</v>
+      </c>
+      <c r="G97">
+        <v>93</v>
+      </c>
+      <c r="H97">
+        <v>367</v>
+      </c>
+      <c r="I97">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98">
+        <v>75</v>
+      </c>
+      <c r="D98">
+        <v>88</v>
+      </c>
+      <c r="E98">
+        <v>100</v>
+      </c>
+      <c r="F98">
+        <v>78</v>
+      </c>
+      <c r="G98">
+        <v>77</v>
+      </c>
+      <c r="H98">
+        <v>418</v>
+      </c>
+      <c r="I98">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99">
+        <v>55</v>
+      </c>
+      <c r="D99">
+        <v>67</v>
+      </c>
+      <c r="E99">
+        <v>76</v>
+      </c>
+      <c r="F99">
+        <v>77</v>
+      </c>
+      <c r="G99">
+        <v>81</v>
+      </c>
+      <c r="H99">
+        <v>356</v>
+      </c>
+      <c r="I99">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100">
+        <v>77</v>
+      </c>
+      <c r="D100">
+        <v>72</v>
+      </c>
+      <c r="E100">
+        <v>84</v>
+      </c>
+      <c r="F100">
+        <v>85</v>
+      </c>
+      <c r="G100">
+        <v>100</v>
+      </c>
+      <c r="H100">
+        <v>418</v>
+      </c>
+      <c r="I100">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
+      </c>
+      <c r="D101">
+        <v>91</v>
+      </c>
+      <c r="E101">
+        <v>39</v>
+      </c>
+      <c r="F101">
+        <v>65</v>
+      </c>
+      <c r="G101">
+        <v>59</v>
+      </c>
+      <c r="H101">
+        <v>354</v>
+      </c>
+      <c r="I101">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102">
+        <v>65</v>
+      </c>
+      <c r="D102">
+        <v>59</v>
+      </c>
+      <c r="E102">
+        <v>100</v>
+      </c>
+      <c r="F102">
+        <v>69</v>
+      </c>
+      <c r="G102">
+        <v>85</v>
+      </c>
+      <c r="H102">
+        <v>378</v>
+      </c>
+      <c r="I102">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103">
+        <v>89</v>
+      </c>
+      <c r="D103">
+        <v>85</v>
+      </c>
+      <c r="E103">
+        <v>100</v>
+      </c>
+      <c r="F103">
+        <v>90</v>
+      </c>
+      <c r="G103">
+        <v>76</v>
+      </c>
+      <c r="H103">
+        <v>440</v>
+      </c>
+      <c r="I103">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>100</v>
+      </c>
+      <c r="C104">
+        <v>100</v>
+      </c>
+      <c r="D104">
+        <v>73</v>
+      </c>
+      <c r="E104">
+        <v>100</v>
+      </c>
+      <c r="F104">
+        <v>39</v>
+      </c>
+      <c r="G104">
+        <v>60</v>
+      </c>
+      <c r="H104">
+        <v>372</v>
+      </c>
+      <c r="I104">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>101</v>
+      </c>
+      <c r="C105">
+        <v>84</v>
+      </c>
+      <c r="D105">
+        <v>92</v>
+      </c>
+      <c r="E105">
+        <v>89</v>
+      </c>
+      <c r="F105">
+        <v>67</v>
+      </c>
+      <c r="G105">
+        <v>80</v>
+      </c>
+      <c r="H105">
+        <v>412</v>
+      </c>
+      <c r="I105">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>102</v>
+      </c>
+      <c r="C106">
+        <v>75</v>
+      </c>
+      <c r="D106">
+        <v>100</v>
+      </c>
+      <c r="E106">
+        <v>49</v>
+      </c>
+      <c r="F106">
+        <v>74</v>
+      </c>
+      <c r="G106">
+        <v>65</v>
+      </c>
+      <c r="H106">
+        <v>363</v>
+      </c>
+      <c r="I106">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107">
+        <v>100</v>
+      </c>
+      <c r="D107">
+        <v>59</v>
+      </c>
+      <c r="E107">
+        <v>42</v>
+      </c>
+      <c r="F107">
+        <v>71</v>
+      </c>
+      <c r="G107">
+        <v>87</v>
+      </c>
+      <c r="H107">
+        <v>359</v>
+      </c>
+      <c r="I107">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108">
+        <v>55</v>
+      </c>
+      <c r="D108">
+        <v>64</v>
+      </c>
+      <c r="E108">
+        <v>36</v>
+      </c>
+      <c r="F108">
+        <v>68</v>
+      </c>
+      <c r="G108">
+        <v>77</v>
+      </c>
+      <c r="H108">
+        <v>300</v>
+      </c>
+      <c r="I108">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109">
+        <v>83</v>
+      </c>
+      <c r="D109">
+        <v>58</v>
+      </c>
+      <c r="E109">
+        <v>63</v>
+      </c>
+      <c r="F109">
+        <v>28</v>
+      </c>
+      <c r="G109">
+        <v>49</v>
+      </c>
+      <c r="H109">
+        <v>281</v>
+      </c>
+      <c r="I109">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110">
+        <v>58</v>
+      </c>
+      <c r="D110">
+        <v>96</v>
+      </c>
+      <c r="E110">
+        <v>56</v>
+      </c>
+      <c r="F110">
+        <v>88</v>
+      </c>
+      <c r="G110">
+        <v>83</v>
+      </c>
+      <c r="H110">
+        <v>381</v>
+      </c>
+      <c r="I110">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111">
+        <v>53</v>
+      </c>
+      <c r="D111">
+        <v>58</v>
+      </c>
+      <c r="E111">
+        <v>56</v>
+      </c>
+      <c r="F111">
+        <v>75</v>
+      </c>
+      <c r="G111">
+        <v>73</v>
+      </c>
+      <c r="H111">
+        <v>315</v>
+      </c>
+      <c r="I111">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112">
+        <v>62</v>
+      </c>
+      <c r="D112">
+        <v>80</v>
+      </c>
+      <c r="E112">
+        <v>65</v>
+      </c>
+      <c r="F112">
+        <v>98</v>
+      </c>
+      <c r="G112">
+        <v>84</v>
+      </c>
+      <c r="H112">
+        <v>389</v>
+      </c>
+      <c r="I112">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>108</v>
+      </c>
+      <c r="C113">
+        <v>67</v>
+      </c>
+      <c r="D113">
+        <v>92</v>
+      </c>
+      <c r="E113">
+        <v>55</v>
+      </c>
+      <c r="F113">
+        <v>73</v>
+      </c>
+      <c r="G113">
+        <v>55</v>
+      </c>
+      <c r="H113">
+        <v>342</v>
+      </c>
+      <c r="I113">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>53</v>
+      </c>
+      <c r="C114">
+        <v>100</v>
+      </c>
+      <c r="D114">
+        <v>67</v>
+      </c>
+      <c r="E114">
+        <v>46</v>
+      </c>
+      <c r="F114">
+        <v>89</v>
+      </c>
+      <c r="G114">
+        <v>65</v>
+      </c>
+      <c r="H114">
+        <v>367</v>
+      </c>
+      <c r="I114">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115">
+        <v>50</v>
+      </c>
+      <c r="D115">
+        <v>67</v>
+      </c>
+      <c r="E115">
+        <v>100</v>
+      </c>
+      <c r="F115">
+        <v>60</v>
+      </c>
+      <c r="G115">
+        <v>67</v>
+      </c>
+      <c r="H115">
+        <v>344</v>
+      </c>
+      <c r="I115">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116">
+        <v>98</v>
+      </c>
+      <c r="D116">
+        <v>100</v>
+      </c>
+      <c r="E116">
+        <v>99</v>
+      </c>
+      <c r="F116">
+        <v>50</v>
+      </c>
+      <c r="G116">
+        <v>92</v>
+      </c>
+      <c r="H116">
+        <v>439</v>
+      </c>
+      <c r="I116">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>109</v>
+      </c>
+      <c r="C117">
+        <v>92</v>
+      </c>
+      <c r="D117">
+        <v>51</v>
+      </c>
+      <c r="E117">
+        <v>97</v>
+      </c>
+      <c r="F117">
+        <v>35</v>
+      </c>
+      <c r="G117">
+        <v>89</v>
+      </c>
+      <c r="H117">
+        <v>364</v>
+      </c>
+      <c r="I117">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>110</v>
+      </c>
+      <c r="C118">
+        <v>62</v>
+      </c>
+      <c r="D118">
+        <v>67</v>
+      </c>
+      <c r="E118">
+        <v>42</v>
+      </c>
+      <c r="F118">
+        <v>69</v>
+      </c>
+      <c r="G118">
+        <v>70</v>
+      </c>
+      <c r="H118">
+        <v>310</v>
+      </c>
+      <c r="I118">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>39</v>
+      </c>
+      <c r="C119">
+        <v>93</v>
+      </c>
+      <c r="D119">
+        <v>79</v>
+      </c>
+      <c r="E119">
+        <v>55</v>
+      </c>
+      <c r="F119">
+        <v>60</v>
+      </c>
+      <c r="G119">
+        <v>65</v>
+      </c>
+      <c r="H119">
+        <v>352</v>
+      </c>
+      <c r="I119">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>111</v>
+      </c>
+      <c r="C120">
+        <v>69</v>
+      </c>
+      <c r="D120">
+        <v>52</v>
+      </c>
+      <c r="E120">
+        <v>81</v>
+      </c>
+      <c r="F120">
+        <v>53</v>
+      </c>
+      <c r="G120">
+        <v>65</v>
+      </c>
+      <c r="H120">
+        <v>320</v>
+      </c>
+      <c r="I120">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>112</v>
+      </c>
+      <c r="C121">
+        <v>72</v>
+      </c>
+      <c r="D121">
+        <v>53</v>
+      </c>
+      <c r="E121">
+        <v>22</v>
+      </c>
+      <c r="F121">
+        <v>85</v>
+      </c>
+      <c r="G121">
+        <v>71</v>
+      </c>
+      <c r="H121">
+        <v>303</v>
+      </c>
+      <c r="I121">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>113</v>
+      </c>
+      <c r="C122">
+        <v>83</v>
+      </c>
+      <c r="D122">
+        <v>86</v>
+      </c>
+      <c r="E122">
+        <v>21</v>
+      </c>
+      <c r="F122">
+        <v>98</v>
+      </c>
+      <c r="G122">
+        <v>78</v>
+      </c>
+      <c r="H122">
+        <v>366</v>
+      </c>
+      <c r="I122">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>114</v>
+      </c>
+      <c r="C123">
+        <v>61</v>
+      </c>
+      <c r="D123">
+        <v>71</v>
+      </c>
+      <c r="E123">
+        <v>75</v>
+      </c>
+      <c r="F123">
+        <v>72</v>
+      </c>
+      <c r="G123">
+        <v>73</v>
+      </c>
+      <c r="H123">
+        <v>352</v>
+      </c>
+      <c r="I123">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>115</v>
+      </c>
+      <c r="C124">
+        <v>76</v>
+      </c>
+      <c r="D124">
+        <v>52</v>
+      </c>
+      <c r="E124">
+        <v>86</v>
+      </c>
+      <c r="F124">
+        <v>81</v>
+      </c>
+      <c r="G124">
+        <v>68</v>
+      </c>
+      <c r="H124">
+        <v>363</v>
+      </c>
+      <c r="I124">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>116</v>
+      </c>
+      <c r="C125">
+        <v>65</v>
+      </c>
+      <c r="D125">
+        <v>54</v>
+      </c>
+      <c r="E125">
+        <v>79</v>
+      </c>
+      <c r="F125">
+        <v>73</v>
+      </c>
+      <c r="G125">
+        <v>67</v>
+      </c>
+      <c r="H125">
+        <v>338</v>
+      </c>
+      <c r="I125">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>80</v>
+      </c>
+      <c r="C126">
+        <v>66</v>
+      </c>
+      <c r="D126">
+        <v>100</v>
+      </c>
+      <c r="E126">
+        <v>56</v>
+      </c>
+      <c r="F126">
+        <v>71</v>
+      </c>
+      <c r="G126">
+        <v>74</v>
+      </c>
+      <c r="H126">
+        <v>367</v>
+      </c>
+      <c r="I126">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>117</v>
+      </c>
+      <c r="C127">
+        <v>63</v>
+      </c>
+      <c r="D127">
+        <v>50</v>
+      </c>
+      <c r="E127">
+        <v>76</v>
+      </c>
+      <c r="F127">
+        <v>56</v>
+      </c>
+      <c r="G127">
+        <v>52</v>
+      </c>
+      <c r="H127">
+        <v>297</v>
+      </c>
+      <c r="I127">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>118</v>
+      </c>
+      <c r="C128">
+        <v>72</v>
+      </c>
+      <c r="D128">
+        <v>69</v>
+      </c>
+      <c r="E128">
+        <v>32</v>
+      </c>
+      <c r="F128">
+        <v>54</v>
+      </c>
+      <c r="G128">
+        <v>53</v>
+      </c>
+      <c r="H128">
+        <v>280</v>
+      </c>
+      <c r="I128">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>119</v>
+      </c>
+      <c r="C129">
+        <v>39</v>
+      </c>
+      <c r="D129">
+        <v>28</v>
+      </c>
+      <c r="E129">
+        <v>91</v>
+      </c>
+      <c r="F129">
+        <v>90</v>
+      </c>
+      <c r="G129">
+        <v>41</v>
+      </c>
+      <c r="H129">
+        <v>289</v>
+      </c>
+      <c r="I129">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>120</v>
+      </c>
+      <c r="C130">
+        <v>64</v>
+      </c>
+      <c r="D130">
+        <v>70</v>
+      </c>
+      <c r="E130">
+        <v>65</v>
+      </c>
+      <c r="F130">
+        <v>90</v>
+      </c>
+      <c r="G130">
+        <v>77</v>
+      </c>
+      <c r="H130">
+        <v>366</v>
+      </c>
+      <c r="I130">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>54</v>
+      </c>
+      <c r="C131">
+        <v>40</v>
+      </c>
+      <c r="D131">
+        <v>78</v>
+      </c>
+      <c r="E131">
+        <v>100</v>
+      </c>
+      <c r="F131">
+        <v>42</v>
+      </c>
+      <c r="G131">
+        <v>58</v>
+      </c>
+      <c r="H131">
+        <v>318</v>
+      </c>
+      <c r="I131">
         <v>500</v>
       </c>
     </row>
